--- a/demo/ams_benchmark/vis/ieee39_uced.xlsx
+++ b/demo/ams_benchmark/vis/ieee39_uced.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/work/ams/icebar/CaseStudy/vis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/work/demo/demo/ams_benchmark/vis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC2F6F1-61DE-B549-97FF-56B470836F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317631AC-082E-0644-BC0D-E76426DE9E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="18880" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6140,9 +6140,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="159" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/demo/ams_benchmark/vis/ieee39_uced.xlsx
+++ b/demo/ams_benchmark/vis/ieee39_uced.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/work/demo/demo/ams_benchmark/vis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317631AC-082E-0644-BC0D-E76426DE9E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3EE4EA-00DA-6B43-9447-DDC967ADB106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="18880" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="18880" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="14" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Shunt" sheetId="22" r:id="rId6"/>
     <sheet name="Line" sheetId="5" r:id="rId7"/>
     <sheet name="Area" sheetId="7" r:id="rId8"/>
-    <sheet name="Region" sheetId="8" r:id="rId9"/>
+    <sheet name="Zone" sheetId="8" r:id="rId9"/>
     <sheet name="GCost" sheetId="6" r:id="rId10"/>
     <sheet name="EDTSlot" sheetId="12" r:id="rId11"/>
     <sheet name="UCTSlot" sheetId="13" r:id="rId12"/>
@@ -6140,7 +6140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
@@ -12058,8 +12058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1076654-EF34-CC4B-89BB-5D9DC73428FE}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
